--- a/2020项目对接/01-01珊瑚配置产品/第三批-珊瑚测试卡(1年).xlsx
+++ b/2020项目对接/01-01珊瑚配置产品/第三批-珊瑚测试卡(1年).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\01-01珊瑚配置产品\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\2020项目对接\01-01珊瑚配置产品\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,58 +42,60 @@
     <t>5013</t>
   </si>
   <si>
+    <t>902011100002</t>
+  </si>
+  <si>
+    <t>8241</t>
+  </si>
+  <si>
+    <t>902011100003</t>
+  </si>
+  <si>
+    <t>2476</t>
+  </si>
+  <si>
+    <t>902011100004</t>
+  </si>
+  <si>
+    <t>8399</t>
+  </si>
+  <si>
+    <t>902011100005</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>902011100006</t>
+  </si>
+  <si>
+    <t>0926</t>
+  </si>
+  <si>
+    <t>902011100007</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>902011100008</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>902011100009</t>
+  </si>
+  <si>
+    <t>8887</t>
+  </si>
+  <si>
     <t>902011100001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>8110</t>
-  </si>
-  <si>
-    <t>902011100002</t>
-  </si>
-  <si>
-    <t>8241</t>
-  </si>
-  <si>
-    <t>902011100003</t>
-  </si>
-  <si>
-    <t>2476</t>
-  </si>
-  <si>
-    <t>902011100004</t>
-  </si>
-  <si>
-    <t>8399</t>
-  </si>
-  <si>
-    <t>902011100005</t>
-  </si>
-  <si>
-    <t>1940</t>
-  </si>
-  <si>
-    <t>902011100006</t>
-  </si>
-  <si>
-    <t>0926</t>
-  </si>
-  <si>
-    <t>902011100007</t>
-  </si>
-  <si>
-    <t>1151</t>
-  </si>
-  <si>
-    <t>902011100008</t>
-  </si>
-  <si>
-    <t>2990</t>
-  </si>
-  <si>
-    <t>902011100009</t>
-  </si>
-  <si>
-    <t>8887</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -128,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -170,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -182,6 +190,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,7 +483,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -480,13 +494,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -502,25 +516,25 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -528,10 +542,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -539,10 +553,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -550,10 +564,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -561,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -572,10 +586,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -583,10 +597,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -594,10 +608,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -605,10 +619,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/2020项目对接/01-01珊瑚配置产品/第三批-珊瑚测试卡(1年).xlsx
+++ b/2020项目对接/01-01珊瑚配置产品/第三批-珊瑚测试卡(1年).xlsx
@@ -42,16 +42,7 @@
     <t>5013</t>
   </si>
   <si>
-    <t>902011100002</t>
-  </si>
-  <si>
     <t>8241</t>
-  </si>
-  <si>
-    <t>902011100003</t>
-  </si>
-  <si>
-    <t>2476</t>
   </si>
   <si>
     <t>902011100004</t>
@@ -95,6 +86,18 @@
   </si>
   <si>
     <t>8110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>902011100002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>902011100003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2476</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +486,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,32 +534,32 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -564,10 +567,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -575,10 +578,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -586,10 +589,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -597,10 +600,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -608,10 +611,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -619,10 +622,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/2020项目对接/01-01珊瑚配置产品/第三批-珊瑚测试卡(1年).xlsx
+++ b/2020项目对接/01-01珊瑚配置产品/第三批-珊瑚测试卡(1年).xlsx
@@ -45,12 +45,6 @@
     <t>8241</t>
   </si>
   <si>
-    <t>902011100004</t>
-  </si>
-  <si>
-    <t>8399</t>
-  </si>
-  <si>
     <t>902011100005</t>
   </si>
   <si>
@@ -98,6 +92,14 @@
   </si>
   <si>
     <t>2476</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>902011100004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8399</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +488,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -534,10 +536,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -545,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
@@ -556,32 +558,32 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -589,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -600,10 +602,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -611,10 +613,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -622,10 +624,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
